--- a/medicine/Sexualité et sexologie/Une_adolescente/Une_adolescente.xlsx
+++ b/medicine/Sexualité et sexologie/Une_adolescente/Une_adolescente.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une adolescente (少女, Shōjo?) est un film japonais réalisé par Eiji Okuda, sorti en 2001.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Yoko, une adolescente de 15 ans, propose à Tomokawa, un policier, d'avoir des relations sexuelles tarifées...
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Une adolescente
 Titre original : 少女 (Shōjo?)
@@ -553,15 +569,15 @@
 Décors : Katsuhiko Hibino
 Musique : Shigeru Umebayashi
 Producteurs : Ben Yamamoto, Eiji Okuda et Henri Ishii
-Société de distribution : Pan-Européenne[1]
+Société de distribution : Pan-Européenne
 Pays d'origine :  Japon
 Langue originale : japonais
 Format : couleur - stéréo
 Genre : Drame et romance
-Durée : 132 minutes (2h12)[2]
+Durée : 132 minutes (2h12)
 Dates de sortie :
-Japon : 29 septembre 2001[2]
-France : 19 mars 2003[1],[3]</t>
+Japon : 29 septembre 2001
+France : 19 mars 2003,</t>
         </is>
       </c>
     </row>
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Eiji Okuda : Tomokawa
 Mayu Ozawa (ja) : Yoko
@@ -623,15 +641,86 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
-Récompenses
-Grand Prix et prix de la meilleure actrice pour Mayu Ozawa (ja) au Festival de Paris 2002
-Grand prix de l'AFI Fest 2002[4]
-Prix de la meilleure actrice pour Mayu Ozawa (ja) au festival international du film de Thessalonique 2001
-Sélection
-Mostra de Venise 2001[5]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Une_adolescente</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Une_adolescente</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Grand Prix et prix de la meilleure actrice pour Mayu Ozawa (ja) au Festival de Paris 2002
+Grand prix de l'AFI Fest 2002
+Prix de la meilleure actrice pour Mayu Ozawa (ja) au festival international du film de Thessalonique 2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Une_adolescente</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Une_adolescente</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sélection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Mostra de Venise 2001
 Alexandre d'Or du meilleur film au festival international du film de Thessalonique 2001</t>
         </is>
       </c>
